--- a/Resource/example.xlsx
+++ b/Resource/example.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE307FB5-D002-4886-ADEF-1D3D45B462FE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7094C706-CBBA-4088-AFEC-90FDFCC0800E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4530" yWindow="3750" windowWidth="28800" windowHeight="15555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Example1" sheetId="1" r:id="rId1"/>
@@ -41,12 +41,17 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="162">
   <si>
     <t>C1:E5</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -571,6 +576,10 @@
   <si>
     <t>员工 4</t>
   </si>
+  <si>
+    <t>&lt;@#$&gt;?/.*&amp;^%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -579,10 +588,10 @@
   <numFmts count="6">
     <numFmt numFmtId="8" formatCode="&quot;¥&quot;#,##0.00;[Red]&quot;¥&quot;\-#,##0.00"/>
     <numFmt numFmtId="176" formatCode="&quot;$&quot;#,##0.00_);\(&quot;$&quot;#,##0.00\)"/>
-    <numFmt numFmtId="178" formatCode="&quot;续订&quot;;&quot;&quot;;&quot;&quot;"/>
-    <numFmt numFmtId="179" formatCode="&quot;LAST YEAR &quot;\ General"/>
-    <numFmt numFmtId="181" formatCode="d"/>
-    <numFmt numFmtId="182" formatCode="0_ "/>
+    <numFmt numFmtId="177" formatCode="&quot;续订&quot;;&quot;&quot;;&quot;&quot;"/>
+    <numFmt numFmtId="178" formatCode="&quot;LAST YEAR &quot;\ General"/>
+    <numFmt numFmtId="179" formatCode="d"/>
+    <numFmt numFmtId="180" formatCode="0_ "/>
   </numFmts>
   <fonts count="21" x14ac:knownFonts="1">
     <font>
@@ -848,7 +857,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyProtection="0">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="178" fontId="7" fillId="6" borderId="0">
+    <xf numFmtId="177" fontId="7" fillId="6" borderId="0">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyProtection="0">
@@ -872,7 +881,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="15" fillId="0" borderId="0" applyFill="0" applyProtection="0">
+    <xf numFmtId="178" fontId="15" fillId="0" borderId="0" applyFill="0" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -888,7 +897,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="8" fillId="0" borderId="0" applyFill="0" applyBorder="0">
+    <xf numFmtId="179" fontId="8" fillId="0" borderId="0" applyFill="0" applyBorder="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
@@ -903,7 +912,7 @@
     <xf numFmtId="0" fontId="19" fillId="9" borderId="2">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="182" fontId="8" fillId="0" borderId="0">
+    <xf numFmtId="180" fontId="8" fillId="0" borderId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
@@ -937,13 +946,13 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="31" applyFont="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="32">
     <cellStyle name="Days_On_Leave" xfId="20" xr:uid="{046EC0F8-CB66-4EE5-8E11-F4185E5EF64E}"/>
@@ -979,7 +988,7 @@
     <cellStyle name="着色 4 2" xfId="16" xr:uid="{76A01ADE-EE5D-4411-9ECB-8577D999CA61}"/>
     <cellStyle name="着色 5 2" xfId="18" xr:uid="{4B3E91DA-15A8-4A9B-B7C6-DCDD5FA95B0B}"/>
   </cellStyles>
-  <dxfs count="26">
+  <dxfs count="19">
     <dxf>
       <font>
         <strike val="0"/>
@@ -1059,53 +1068,6 @@
         <charset val="134"/>
         <scheme val="none"/>
       </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <numFmt numFmtId="183" formatCode="[$-804]dddd\,\ mmmm\ d\,\ yyyy"/>
     </dxf>
     <dxf>
       <font>
@@ -1286,23 +1248,23 @@
   </dxfs>
   <tableStyles count="3" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="考勤记录表样式" pivot="0" count="5" xr9:uid="{457008DC-1AF3-4015-B9D4-09920A1E4926}">
-      <tableStyleElement type="wholeTable" dxfId="25"/>
-      <tableStyleElement type="headerRow" dxfId="24"/>
-      <tableStyleElement type="firstColumn" dxfId="23"/>
-      <tableStyleElement type="firstRowStripe" dxfId="22"/>
-      <tableStyleElement type="firstHeaderCell" dxfId="21"/>
+      <tableStyleElement type="wholeTable" dxfId="18"/>
+      <tableStyleElement type="headerRow" dxfId="17"/>
+      <tableStyleElement type="firstColumn" dxfId="16"/>
+      <tableStyleElement type="firstRowStripe" dxfId="15"/>
+      <tableStyleElement type="firstHeaderCell" dxfId="14"/>
     </tableStyle>
     <tableStyle name="考勤记录表样式 2" pivot="0" count="5" xr9:uid="{EEC8CDD0-268E-4F2D-824E-CB6228F591C2}">
-      <tableStyleElement type="wholeTable" dxfId="20"/>
-      <tableStyleElement type="headerRow" dxfId="19"/>
-      <tableStyleElement type="firstColumn" dxfId="18"/>
-      <tableStyleElement type="firstRowStripe" dxfId="17"/>
-      <tableStyleElement type="firstHeaderCell" dxfId="16"/>
+      <tableStyleElement type="wholeTable" dxfId="13"/>
+      <tableStyleElement type="headerRow" dxfId="12"/>
+      <tableStyleElement type="firstColumn" dxfId="11"/>
+      <tableStyleElement type="firstRowStripe" dxfId="10"/>
+      <tableStyleElement type="firstHeaderCell" dxfId="9"/>
     </tableStyle>
     <tableStyle name="库存清单" pivot="0" count="3" xr9:uid="{CCC0CC4C-9D41-4FDE-B735-7BDAECEA2F78}">
-      <tableStyleElement type="wholeTable" dxfId="15"/>
-      <tableStyleElement type="headerRow" dxfId="14"/>
-      <tableStyleElement type="firstColumn" dxfId="13"/>
+      <tableStyleElement type="wholeTable" dxfId="8"/>
+      <tableStyleElement type="headerRow" dxfId="7"/>
+      <tableStyleElement type="firstColumn" dxfId="6"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -1682,7 +1644,7 @@
   <dimension ref="A1:S14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S4" sqref="S4"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1692,47 +1654,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
       <c r="G1">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
       <c r="G2">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" t="s">
+        <v>161</v>
+      </c>
       <c r="G3">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
       <c r="G4">
         <v>15</v>
       </c>
@@ -1741,18 +1706,18 @@
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
       <c r="G5">
         <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
       <c r="C6">
         <v>1</v>
       </c>
@@ -1767,9 +1732,9 @@
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
       <c r="D7">
         <v>5</v>
       </c>
@@ -1780,8 +1745,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:19" s="11" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:19" s="12" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>7</v>
@@ -1886,13 +1851,13 @@
       <c r="C2" t="s">
         <v>80</v>
       </c>
-      <c r="D2" s="12">
+      <c r="D2" s="10">
         <v>51</v>
       </c>
       <c r="E2">
         <v>25</v>
       </c>
-      <c r="F2" s="12">
+      <c r="F2" s="10">
         <v>1275</v>
       </c>
       <c r="G2">
@@ -1915,13 +1880,13 @@
       <c r="C3" t="s">
         <v>77</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="10">
         <v>93</v>
       </c>
       <c r="E3">
         <v>132</v>
       </c>
-      <c r="F3" s="12">
+      <c r="F3" s="10">
         <v>12276</v>
       </c>
       <c r="G3">
@@ -1944,13 +1909,13 @@
       <c r="C4" t="s">
         <v>74</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="10">
         <v>57</v>
       </c>
       <c r="E4">
         <v>151</v>
       </c>
-      <c r="F4" s="12">
+      <c r="F4" s="10">
         <v>8607</v>
       </c>
       <c r="G4">
@@ -1973,13 +1938,13 @@
       <c r="C5" t="s">
         <v>71</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="10">
         <v>19</v>
       </c>
       <c r="E5">
         <v>186</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="10">
         <v>3534</v>
       </c>
       <c r="G5">
@@ -2002,13 +1967,13 @@
       <c r="C6" t="s">
         <v>68</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="10">
         <v>75</v>
       </c>
       <c r="E6">
         <v>62</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="10">
         <v>4650</v>
       </c>
       <c r="G6">
@@ -2031,13 +1996,13 @@
       <c r="C7" t="s">
         <v>65</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="10">
         <v>11</v>
       </c>
       <c r="E7">
         <v>5</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="10">
         <v>55</v>
       </c>
       <c r="G7">
@@ -2060,13 +2025,13 @@
       <c r="C8" t="s">
         <v>62</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="10">
         <v>56</v>
       </c>
       <c r="E8">
         <v>58</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="10">
         <v>3248</v>
       </c>
       <c r="G8">
@@ -2092,13 +2057,13 @@
       <c r="C9" t="s">
         <v>59</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="10">
         <v>38</v>
       </c>
       <c r="E9">
         <v>101</v>
       </c>
-      <c r="F9" s="12">
+      <c r="F9" s="10">
         <v>3838</v>
       </c>
       <c r="G9">
@@ -2121,13 +2086,13 @@
       <c r="C10" t="s">
         <v>56</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="10">
         <v>59</v>
       </c>
       <c r="E10">
         <v>122</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F10" s="10">
         <v>7198</v>
       </c>
       <c r="G10">
@@ -2150,13 +2115,13 @@
       <c r="C11" t="s">
         <v>53</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="10">
         <v>50</v>
       </c>
       <c r="E11">
         <v>175</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F11" s="10">
         <v>8750</v>
       </c>
       <c r="G11">
@@ -2179,13 +2144,13 @@
       <c r="C12" t="s">
         <v>50</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="10">
         <v>59</v>
       </c>
       <c r="E12">
         <v>176</v>
       </c>
-      <c r="F12" s="12">
+      <c r="F12" s="10">
         <v>10384</v>
       </c>
       <c r="G12">
@@ -2208,13 +2173,13 @@
       <c r="C13" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D13" s="10">
         <v>18</v>
       </c>
       <c r="E13">
         <v>22</v>
       </c>
-      <c r="F13" s="12">
+      <c r="F13" s="10">
         <v>396</v>
       </c>
       <c r="G13">
@@ -2237,13 +2202,13 @@
       <c r="C14" t="s">
         <v>44</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D14" s="10">
         <v>26</v>
       </c>
       <c r="E14">
         <v>72</v>
       </c>
-      <c r="F14" s="12">
+      <c r="F14" s="10">
         <v>1872</v>
       </c>
       <c r="G14">
@@ -2266,13 +2231,13 @@
       <c r="C15" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D15" s="10">
         <v>42</v>
       </c>
       <c r="E15">
         <v>62</v>
       </c>
-      <c r="F15" s="12">
+      <c r="F15" s="10">
         <v>2604</v>
       </c>
       <c r="G15">
@@ -2295,13 +2260,13 @@
       <c r="C16" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="12">
+      <c r="D16" s="10">
         <v>32</v>
       </c>
       <c r="E16">
         <v>46</v>
       </c>
-      <c r="F16" s="12">
+      <c r="F16" s="10">
         <v>1472</v>
       </c>
       <c r="G16">
@@ -2324,13 +2289,13 @@
       <c r="C17" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="12">
+      <c r="D17" s="10">
         <v>90</v>
       </c>
       <c r="E17">
         <v>96</v>
       </c>
-      <c r="F17" s="12">
+      <c r="F17" s="10">
         <v>8640</v>
       </c>
       <c r="G17">
@@ -2353,13 +2318,13 @@
       <c r="C18" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="12">
+      <c r="D18" s="10">
         <v>97</v>
       </c>
       <c r="E18">
         <v>57</v>
       </c>
-      <c r="F18" s="12">
+      <c r="F18" s="10">
         <v>5529</v>
       </c>
       <c r="G18">
@@ -2385,13 +2350,13 @@
       <c r="C19" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="12">
+      <c r="D19" s="10">
         <v>12</v>
       </c>
       <c r="E19">
         <v>6</v>
       </c>
-      <c r="F19" s="12">
+      <c r="F19" s="10">
         <v>72</v>
       </c>
       <c r="G19">
@@ -2414,13 +2379,13 @@
       <c r="C20" t="s">
         <v>26</v>
       </c>
-      <c r="D20" s="12">
+      <c r="D20" s="10">
         <v>82</v>
       </c>
       <c r="E20">
         <v>143</v>
       </c>
-      <c r="F20" s="12">
+      <c r="F20" s="10">
         <v>11726</v>
       </c>
       <c r="G20">
@@ -2443,13 +2408,13 @@
       <c r="C21" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="12">
+      <c r="D21" s="10">
         <v>16</v>
       </c>
       <c r="E21">
         <v>124</v>
       </c>
-      <c r="F21" s="12">
+      <c r="F21" s="10">
         <v>1984</v>
       </c>
       <c r="G21">
@@ -2472,13 +2437,13 @@
       <c r="C22" t="s">
         <v>20</v>
       </c>
-      <c r="D22" s="12">
+      <c r="D22" s="10">
         <v>19</v>
       </c>
       <c r="E22">
         <v>112</v>
       </c>
-      <c r="F22" s="12">
+      <c r="F22" s="10">
         <v>2128</v>
       </c>
       <c r="G22">
@@ -2501,13 +2466,13 @@
       <c r="C23" t="s">
         <v>17</v>
       </c>
-      <c r="D23" s="12">
+      <c r="D23" s="10">
         <v>24</v>
       </c>
       <c r="E23">
         <v>182</v>
       </c>
-      <c r="F23" s="12">
+      <c r="F23" s="10">
         <v>4368</v>
       </c>
       <c r="G23">
@@ -2530,13 +2495,13 @@
       <c r="C24" t="s">
         <v>14</v>
       </c>
-      <c r="D24" s="12">
+      <c r="D24" s="10">
         <v>29</v>
       </c>
       <c r="E24">
         <v>106</v>
       </c>
-      <c r="F24" s="12">
+      <c r="F24" s="10">
         <v>3074</v>
       </c>
       <c r="G24">
@@ -2562,13 +2527,13 @@
       <c r="C25" t="s">
         <v>10</v>
       </c>
-      <c r="D25" s="12">
+      <c r="D25" s="10">
         <v>75</v>
       </c>
       <c r="E25">
         <v>173</v>
       </c>
-      <c r="F25" s="12">
+      <c r="F25" s="10">
         <v>12975</v>
       </c>
       <c r="G25">
@@ -2591,13 +2556,13 @@
       <c r="C26" t="s">
         <v>7</v>
       </c>
-      <c r="D26" s="12">
+      <c r="D26" s="10">
         <v>14</v>
       </c>
       <c r="E26">
         <v>28</v>
       </c>
-      <c r="F26" s="12">
+      <c r="F26" s="10">
         <v>392</v>
       </c>
       <c r="G26">
